--- a/output_data/charts/capacity-GranvilleTownshipLicking-0700000US390893141699999.xlsx
+++ b/output_data/charts/capacity-GranvilleTownshipLicking-0700000US390893141699999.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -862,46 +862,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9400</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7600</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2900</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19500</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15200</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63500</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13600</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39610</c:v>
+                  <c:v>39.61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43280</c:v>
+                  <c:v>43.28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>79650</c:v>
+                  <c:v>79.65000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25038</c:v>
+                  <c:v>25.038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>9400</v>
+        <v>9.4</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>19500</v>
+        <v>19.5</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>15200</v>
+        <v>15.2</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>63500</v>
+        <v>63.5</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>13600</v>
+        <v>13.6</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>39610</v>
+        <v>39.61</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>43280</v>
+        <v>43.28</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>79650</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>25038</v>
+        <v>25.038</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
